--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subha\artificial-intelligence\Projects\2_Classical Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3836A7C2-D163-47FC-BAA3-E577910CCE1A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CC2CC7-42F9-4ED0-83A2-D095A84588F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79440E0E-69F8-498D-A87E-0F6121224EBD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="19">
   <si>
     <t>Air Cargo Problem 1</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>Air Cargo Problem 4</t>
+  </si>
+  <si>
+    <t>No. of Actions</t>
+  </si>
+  <si>
+    <t>No. of New Node Expansions</t>
+  </si>
+  <si>
+    <t>Time to Complete Plan Search</t>
   </si>
 </sst>
 </file>
@@ -429,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2091DE4A-E5E6-47E8-8CA0-D869FD7DFA8C}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A33"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,9 +449,12 @@
     <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -452,8 +464,17 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -461,7 +482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -469,7 +490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -477,7 +498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -488,7 +509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -499,7 +520,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -510,7 +531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -521,7 +542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -532,7 +553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -543,7 +564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -554,7 +575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -565,7 +586,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -573,7 +594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -581,7 +602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -589,7 +610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>

--- a/Report.xlsx
+++ b/Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\subha\artificial-intelligence\Projects\2_Classical Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67CC2CC7-42F9-4ED0-83A2-D095A84588F6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D669BA2E-E1C2-486F-9D07-B716D855FC6E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{79440E0E-69F8-498D-A87E-0F6121224EBD}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="22">
   <si>
     <t>Air Cargo Problem 1</t>
   </si>
@@ -80,13 +80,22 @@
     <t>Air Cargo Problem 4</t>
   </si>
   <si>
-    <t>No. of Actions</t>
-  </si>
-  <si>
-    <t>No. of New Node Expansions</t>
-  </si>
-  <si>
-    <t>Time to Complete Plan Search</t>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>Expansions</t>
+  </si>
+  <si>
+    <t>Goal Tests</t>
+  </si>
+  <si>
+    <t>New Nodes</t>
+  </si>
+  <si>
+    <t>Plan Length</t>
+  </si>
+  <si>
+    <t>Time elapsed in seconds</t>
   </si>
 </sst>
 </file>
@@ -438,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2091DE4A-E5E6-47E8-8CA0-D869FD7DFA8C}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,11 +459,14 @@
     <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -473,8 +485,17 @@
       <c r="F1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -482,7 +503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -490,7 +511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -498,7 +519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -509,7 +530,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -520,7 +541,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -531,7 +552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -542,7 +563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -553,7 +574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -564,7 +585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -575,7 +596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -586,7 +607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -594,7 +615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -602,7 +623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -610,7 +631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
